--- a/KOSPI2.xlsx
+++ b/KOSPI2.xlsx
@@ -24,13 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>KOSPI200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -104,7 +108,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -123,26 +127,20 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -434,3436 +432,3792 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D343"/>
+  <dimension ref="A1:C343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="11.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44896</v>
       </c>
       <c r="B2" s="4">
         <v>322.02</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="9">
+        <v>130317465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44897</v>
       </c>
       <c r="B3" s="4">
         <v>315.02</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="9">
+        <v>114750435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44900</v>
       </c>
       <c r="B4" s="4">
         <v>313.91000000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="9">
+        <v>113970929</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44901</v>
       </c>
       <c r="B5" s="4">
         <v>310.14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="9">
+        <v>100040512</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44902</v>
       </c>
       <c r="B6" s="4">
         <v>308.27</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="9">
+        <v>92852286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44903</v>
       </c>
       <c r="B7" s="4">
         <v>308.24</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="9">
+        <v>121095343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44904</v>
       </c>
       <c r="B8" s="4">
         <v>311.63</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="9">
+        <v>113451366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44907</v>
       </c>
       <c r="B9" s="4">
         <v>309.64</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="9">
+        <v>85706449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44908</v>
       </c>
       <c r="B10" s="4">
         <v>309.56</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="9">
+        <v>101876943</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44909</v>
       </c>
       <c r="B11" s="4">
         <v>313.23</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="9">
+        <v>83853551</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44910</v>
       </c>
       <c r="B12" s="4">
         <v>307.73</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="9">
+        <v>95261751</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44911</v>
       </c>
       <c r="B13" s="4">
         <v>307.48</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="9">
+        <v>114653592</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44914</v>
       </c>
       <c r="B14" s="4">
         <v>306.77</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="9">
+        <v>77963325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44915</v>
       </c>
       <c r="B15" s="4">
         <v>304.05</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="9">
+        <v>88754764</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44916</v>
       </c>
       <c r="B16" s="4">
         <v>303.23</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="9">
+        <v>76956809</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44917</v>
       </c>
       <c r="B17" s="4">
         <v>307.48</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="9">
+        <v>233308281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44918</v>
       </c>
       <c r="B18" s="4">
         <v>302.07</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="9">
+        <v>94834788</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44921</v>
       </c>
       <c r="B19" s="4">
         <v>302.27</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="9">
+        <v>78881090</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44922</v>
       </c>
       <c r="B20" s="4">
         <v>304.22000000000003</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="9">
+        <v>122967923</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44923</v>
       </c>
       <c r="B21" s="4">
         <v>297.08999999999997</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="9">
+        <v>137294971</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44924</v>
       </c>
       <c r="B22" s="4">
         <v>291.10000000000002</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C22" s="9">
+        <v>114466989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44928</v>
       </c>
       <c r="B23" s="4">
         <v>289.79000000000002</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C23" s="9">
+        <v>92544049</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44929</v>
       </c>
       <c r="B24" s="4">
         <v>289.58</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C24" s="9">
+        <v>106623597</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44930</v>
       </c>
       <c r="B25" s="4">
         <v>295.98</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C25" s="9">
+        <v>109947475</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44931</v>
       </c>
       <c r="B26" s="4">
         <v>297.87</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C26" s="9">
+        <v>137287857</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44932</v>
       </c>
       <c r="B27" s="4">
         <v>301.52999999999997</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="9">
+        <v>121021827</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44935</v>
       </c>
       <c r="B28" s="4">
         <v>309.69</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C28" s="9">
+        <v>121175378</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44936</v>
       </c>
       <c r="B29" s="4">
         <v>309.57</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C29" s="9">
+        <v>111372904</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44937</v>
       </c>
       <c r="B30" s="4">
         <v>310.38</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C30" s="9">
+        <v>102603792</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44938</v>
       </c>
       <c r="B31" s="4">
         <v>310.7</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C31" s="9">
+        <v>130719268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44939</v>
       </c>
       <c r="B32" s="4">
         <v>313.77</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C32" s="9">
+        <v>128647491</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44942</v>
       </c>
       <c r="B33" s="4">
         <v>316.04000000000002</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C33" s="9">
+        <v>119827727</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44943</v>
       </c>
       <c r="B34" s="4">
         <v>313.75</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C34" s="9">
+        <v>101245946</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44944</v>
       </c>
       <c r="B35" s="4">
         <v>311.91000000000003</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="9">
+        <v>93051501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44945</v>
       </c>
       <c r="B36" s="4">
         <v>313.81</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C36" s="9">
+        <v>86249920</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44946</v>
       </c>
       <c r="B37" s="4">
         <v>315.58</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="9">
+        <v>78972658</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44951</v>
       </c>
       <c r="B38" s="4">
         <v>320.76</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="9">
+        <v>97520618</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44952</v>
       </c>
       <c r="B39" s="4">
         <v>325.57</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C39" s="9">
+        <v>117687757</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44953</v>
       </c>
       <c r="B40" s="4">
         <v>327.98</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C40" s="9">
+        <v>155661614</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44956</v>
       </c>
       <c r="B41" s="4">
         <v>322.67</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C41" s="9">
+        <v>137145823</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44957</v>
       </c>
       <c r="B42" s="4">
         <v>317.26</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C42" s="9">
+        <v>193947904</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44958</v>
       </c>
       <c r="B43" s="4">
         <v>321.19</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="9">
+        <v>140273945</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44959</v>
       </c>
       <c r="B44" s="4">
         <v>323.93</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C44" s="9">
+        <v>152246475</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44960</v>
       </c>
       <c r="B45" s="4">
         <v>325.86</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C45" s="9">
+        <v>122469250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44963</v>
       </c>
       <c r="B46" s="4">
         <v>318.83</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C46" s="9">
+        <v>115826892</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44964</v>
       </c>
       <c r="B47" s="4">
         <v>320.55</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C47" s="9">
+        <v>112940390</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44965</v>
       </c>
       <c r="B48" s="4">
         <v>325.63</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C48" s="9">
+        <v>121087013</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44966</v>
       </c>
       <c r="B49" s="4">
         <v>324.89999999999998</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C49" s="9">
+        <v>131410938</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44967</v>
       </c>
       <c r="B50" s="4">
         <v>323.69</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C50" s="9">
+        <v>125095009</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44970</v>
       </c>
       <c r="B51" s="4">
         <v>321.75</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C51" s="9">
+        <v>121797433</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44971</v>
       </c>
       <c r="B52" s="4">
         <v>323.47000000000003</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C52" s="9">
+        <v>103025960</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44972</v>
       </c>
       <c r="B53" s="4">
         <v>317.99</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C53" s="9">
+        <v>136060528</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44973</v>
       </c>
       <c r="B54" s="4">
         <v>324.10000000000002</v>
       </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="6"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C54" s="9">
+        <v>131674142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44974</v>
       </c>
       <c r="B55" s="4">
         <v>320.77999999999997</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="6"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C55" s="9">
+        <v>119623449</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44977</v>
       </c>
       <c r="B56" s="4">
         <v>321.79000000000002</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="6"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C56" s="9">
+        <v>112735523</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44978</v>
       </c>
       <c r="B57" s="4">
         <v>321.56</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="6"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C57" s="9">
+        <v>117749455</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44979</v>
       </c>
       <c r="B58" s="4">
         <v>315.94</v>
       </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="6"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C58" s="9">
+        <v>126067926</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>44980</v>
       </c>
       <c r="B59" s="4">
         <v>319.44</v>
       </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="6"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C59" s="9">
+        <v>144425092</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>44981</v>
       </c>
       <c r="B60" s="4">
         <v>316.94</v>
       </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="6"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C60" s="9">
+        <v>120073528</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>44984</v>
       </c>
       <c r="B61" s="4">
         <v>313.94</v>
       </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="6"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C61" s="9">
+        <v>109318586</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44985</v>
       </c>
       <c r="B62" s="4">
         <v>314.8</v>
       </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="6"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C62" s="9">
+        <v>128788967</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>44987</v>
       </c>
       <c r="B63" s="4">
         <v>316.26</v>
       </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="6"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C63" s="9">
+        <v>134574435</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44988</v>
       </c>
       <c r="B64" s="4">
         <v>316.36</v>
       </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="6"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C64" s="9">
+        <v>113809861</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44991</v>
       </c>
       <c r="B65" s="4">
         <v>320.94</v>
       </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="6"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C65" s="9">
+        <v>125879487</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44992</v>
       </c>
       <c r="B66" s="4">
         <v>319.8</v>
       </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="6"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C66" s="9">
+        <v>130361834</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44993</v>
       </c>
       <c r="B67" s="4">
         <v>315.38</v>
       </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="6"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C67" s="9">
+        <v>136367018</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44994</v>
       </c>
       <c r="B68" s="4">
         <v>314.04000000000002</v>
       </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="6"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C68" s="9">
+        <v>166456519</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44995</v>
       </c>
       <c r="B69" s="4">
         <v>310.64999999999998</v>
       </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="6"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C69" s="9">
+        <v>121792716</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44998</v>
       </c>
       <c r="B70" s="4">
         <v>313.20999999999998</v>
       </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="6"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C70" s="9">
+        <v>125377574</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44999</v>
       </c>
       <c r="B71" s="4">
         <v>305.58</v>
       </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="6"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C71" s="9">
+        <v>129872521</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>45000</v>
       </c>
       <c r="B72" s="4">
         <v>309.10000000000002</v>
       </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="6"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C72" s="9">
+        <v>112057164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>45001</v>
       </c>
       <c r="B73" s="4">
         <v>308.39</v>
       </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="6"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C73" s="9">
+        <v>111884405</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>45002</v>
       </c>
       <c r="B74" s="4">
         <v>312.07</v>
       </c>
-      <c r="C74" s="7"/>
-      <c r="D74" s="6"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C74" s="9">
+        <v>126075336</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>45005</v>
       </c>
       <c r="B75" s="4">
         <v>309.49</v>
       </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="6"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C75" s="9">
+        <v>89484091</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>45006</v>
       </c>
       <c r="B76" s="4">
         <v>310.36</v>
       </c>
-      <c r="C76" s="7"/>
-      <c r="D76" s="6"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C76" s="9">
+        <v>84166007</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>45007</v>
       </c>
       <c r="B77" s="4">
         <v>314.11</v>
       </c>
-      <c r="C77" s="7"/>
-      <c r="D77" s="6"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C77" s="9">
+        <v>93689456</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>45008</v>
       </c>
       <c r="B78" s="4">
         <v>315.75</v>
       </c>
-      <c r="C78" s="7"/>
-      <c r="D78" s="6"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C78" s="9">
+        <v>111562635</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>45009</v>
       </c>
       <c r="B79" s="4">
         <v>314.3</v>
       </c>
-      <c r="C79" s="7"/>
-      <c r="D79" s="6"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C79" s="9">
+        <v>110748782</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>45012</v>
       </c>
       <c r="B80" s="4">
         <v>312.85000000000002</v>
       </c>
-      <c r="C80" s="7"/>
-      <c r="D80" s="6"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C80" s="9">
+        <v>100986815</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>45013</v>
       </c>
       <c r="B81" s="4">
         <v>316.36</v>
       </c>
-      <c r="C81" s="7"/>
-      <c r="D81" s="6"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C81" s="9">
+        <v>120382700</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>45014</v>
       </c>
       <c r="B82" s="4">
         <v>317.01</v>
       </c>
-      <c r="C82" s="7"/>
-      <c r="D82" s="6"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C82" s="9">
+        <v>152849174</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>45015</v>
       </c>
       <c r="B83" s="4">
         <v>318.05</v>
       </c>
-      <c r="C83" s="7"/>
-      <c r="D83" s="6"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C83" s="9">
+        <v>187349495</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>45016</v>
       </c>
       <c r="B84" s="4">
         <v>322.02999999999997</v>
       </c>
-      <c r="C84" s="7"/>
-      <c r="D84" s="6"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C84" s="9">
+        <v>194244791</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>45019</v>
       </c>
       <c r="B85" s="4">
         <v>320.38</v>
       </c>
-      <c r="C85" s="7"/>
-      <c r="D85" s="6"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C85" s="9">
+        <v>137960709</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>45020</v>
       </c>
       <c r="B86" s="4">
         <v>321.75</v>
       </c>
-      <c r="C86" s="7"/>
-      <c r="D86" s="6"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C86" s="9">
+        <v>155302511</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>45021</v>
       </c>
       <c r="B87" s="4">
         <v>323.56</v>
       </c>
-      <c r="C87" s="7"/>
-      <c r="D87" s="6"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C87" s="9">
+        <v>121196254</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>45022</v>
       </c>
       <c r="B88" s="4">
         <v>317.82</v>
       </c>
-      <c r="C88" s="7"/>
-      <c r="D88" s="6"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C88" s="9">
+        <v>145369418</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>45023</v>
       </c>
       <c r="B89" s="4">
         <v>323.36</v>
       </c>
-      <c r="C89" s="7"/>
-      <c r="D89" s="6"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C89" s="9">
+        <v>137010801</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>45026</v>
       </c>
       <c r="B90" s="4">
         <v>326.38</v>
       </c>
-      <c r="C90" s="7"/>
-      <c r="D90" s="6"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C90" s="9">
+        <v>144407683</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>45027</v>
       </c>
       <c r="B91" s="4">
         <v>330.87</v>
       </c>
-      <c r="C91" s="7"/>
-      <c r="D91" s="6"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C91" s="9">
+        <v>148445298</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>45028</v>
       </c>
       <c r="B92" s="4">
         <v>332.09</v>
       </c>
-      <c r="C92" s="7"/>
-      <c r="D92" s="6"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C92" s="9">
+        <v>252054775</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>45029</v>
       </c>
       <c r="B93" s="4">
         <v>333.09</v>
       </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="6"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C93" s="9">
+        <v>172637257</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>45030</v>
       </c>
       <c r="B94" s="4">
         <v>333.68</v>
       </c>
-      <c r="C94" s="7"/>
-      <c r="D94" s="6"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C94" s="9">
+        <v>298774120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>45033</v>
       </c>
       <c r="B95" s="4">
         <v>333.92</v>
       </c>
-      <c r="C95" s="7"/>
-      <c r="D95" s="6"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C95" s="9">
+        <v>244966264</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>45034</v>
       </c>
       <c r="B96" s="4">
         <v>333.5</v>
       </c>
-      <c r="C96" s="7"/>
-      <c r="D96" s="6"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C96" s="9">
+        <v>238293765</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>45035</v>
       </c>
       <c r="B97" s="4">
         <v>333.77</v>
       </c>
-      <c r="C97" s="7"/>
-      <c r="D97" s="6"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C97" s="9">
+        <v>167721804</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>45036</v>
       </c>
       <c r="B98" s="4">
         <v>332.66</v>
       </c>
-      <c r="C98" s="7"/>
-      <c r="D98" s="6"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C98" s="9">
+        <v>176356265</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>45037</v>
       </c>
       <c r="B99" s="4">
         <v>330.94</v>
       </c>
-      <c r="C99" s="7"/>
-      <c r="D99" s="6"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C99" s="9">
+        <v>146584565</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>45040</v>
       </c>
       <c r="B100" s="4">
         <v>328.7</v>
       </c>
-      <c r="C100" s="7"/>
-      <c r="D100" s="6"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C100" s="9">
+        <v>133289353</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>45041</v>
       </c>
       <c r="B101" s="4">
         <v>324.48</v>
       </c>
-      <c r="C101" s="7"/>
-      <c r="D101" s="6"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C101" s="9">
+        <v>163595334</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>45042</v>
       </c>
       <c r="B102" s="4">
         <v>323.97000000000003</v>
       </c>
-      <c r="C102" s="7"/>
-      <c r="D102" s="6"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C102" s="9">
+        <v>142148721</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>45043</v>
       </c>
       <c r="B103" s="4">
         <v>325.08999999999997</v>
       </c>
-      <c r="C103" s="7"/>
-      <c r="D103" s="6"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C103" s="9">
+        <v>147056984</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>45044</v>
       </c>
       <c r="B104" s="4">
         <v>326.45999999999998</v>
       </c>
-      <c r="C104" s="7"/>
-      <c r="D104" s="6"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C104" s="9">
+        <v>156835928</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>45048</v>
       </c>
       <c r="B105" s="4">
         <v>329.09</v>
       </c>
-      <c r="C105" s="7"/>
-      <c r="D105" s="6"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C105" s="9">
+        <v>113909989</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>45049</v>
       </c>
       <c r="B106" s="4">
         <v>326.52</v>
       </c>
-      <c r="C106" s="7"/>
-      <c r="D106" s="6"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C106" s="9">
+        <v>103770971</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>45050</v>
       </c>
       <c r="B107" s="4">
         <v>326.17</v>
       </c>
-      <c r="C107" s="7"/>
-      <c r="D107" s="6"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C107" s="9">
+        <v>98920127</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>45054</v>
       </c>
       <c r="B108" s="4">
         <v>328.9</v>
       </c>
-      <c r="C108" s="7"/>
-      <c r="D108" s="6"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C108" s="9">
+        <v>98841107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>45055</v>
       </c>
       <c r="B109" s="4">
         <v>328.22</v>
       </c>
-      <c r="C109" s="7"/>
-      <c r="D109" s="6"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C109" s="9">
+        <v>90984451</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>45056</v>
       </c>
       <c r="B110" s="4">
         <v>326.04000000000002</v>
       </c>
-      <c r="C110" s="7"/>
-      <c r="D110" s="6"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C110" s="9">
+        <v>97556890</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>45057</v>
       </c>
       <c r="B111" s="4">
         <v>325.27999999999997</v>
       </c>
-      <c r="C111" s="7"/>
-      <c r="D111" s="6"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C111" s="9">
+        <v>99132850</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>45058</v>
       </c>
       <c r="B112" s="4">
         <v>323.61</v>
       </c>
-      <c r="C112" s="7"/>
-      <c r="D112" s="6"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C112" s="9">
+        <v>99540028</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>45061</v>
       </c>
       <c r="B113" s="4">
         <v>324.45999999999998</v>
       </c>
-      <c r="C113" s="7"/>
-      <c r="D113" s="6"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C113" s="9">
+        <v>89271062</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>45062</v>
       </c>
       <c r="B114" s="4">
         <v>325.31</v>
       </c>
-      <c r="C114" s="7"/>
-      <c r="D114" s="6"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C114" s="9">
+        <v>104620587</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>45063</v>
       </c>
       <c r="B115" s="4">
         <v>326.61</v>
       </c>
-      <c r="C115" s="7"/>
-      <c r="D115" s="6"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C115" s="9">
+        <v>92270295</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>45064</v>
       </c>
       <c r="B116" s="4">
         <v>329.84</v>
       </c>
-      <c r="C116" s="7"/>
-      <c r="D116" s="6"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C116" s="9">
+        <v>94713526</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>45065</v>
       </c>
       <c r="B117" s="4">
         <v>334.23</v>
       </c>
-      <c r="C117" s="7"/>
-      <c r="D117" s="6"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C117" s="9">
+        <v>108741473</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>45068</v>
       </c>
       <c r="B118" s="4">
         <v>336.27</v>
       </c>
-      <c r="C118" s="7"/>
-      <c r="D118" s="6"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C118" s="9">
+        <v>111137782</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>45069</v>
       </c>
       <c r="B119" s="4">
         <v>337.09</v>
       </c>
-      <c r="C119" s="7"/>
-      <c r="D119" s="6"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C119" s="9">
+        <v>88884243</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>45070</v>
       </c>
       <c r="B120" s="4">
         <v>336.49</v>
       </c>
-      <c r="C120" s="7"/>
-      <c r="D120" s="6"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C120" s="9">
+        <v>95146291</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>45071</v>
       </c>
       <c r="B121" s="4">
         <v>335.35</v>
       </c>
-      <c r="C121" s="7"/>
-      <c r="D121" s="6"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C121" s="9">
+        <v>94201019</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>45072</v>
       </c>
       <c r="B122" s="4">
         <v>337.11</v>
       </c>
-      <c r="C122" s="7"/>
-      <c r="D122" s="6"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C122" s="9">
+        <v>106705040</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>45076</v>
       </c>
       <c r="B123" s="4">
         <v>341.5</v>
       </c>
-      <c r="C123" s="7"/>
-      <c r="D123" s="6"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C123" s="9">
+        <v>130052607</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>45077</v>
       </c>
       <c r="B124" s="4">
         <v>339.12</v>
       </c>
-      <c r="C124" s="7"/>
-      <c r="D124" s="6"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C124" s="9">
+        <v>191231879</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>45078</v>
       </c>
       <c r="B125" s="4">
         <v>338.08</v>
       </c>
-      <c r="C125" s="7"/>
-      <c r="D125" s="6"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C125" s="9">
+        <v>96806263</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>45079</v>
       </c>
       <c r="B126" s="4">
         <v>342.67</v>
       </c>
-      <c r="C126" s="7"/>
-      <c r="D126" s="6"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C126" s="9">
+        <v>97314317</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>45082</v>
       </c>
       <c r="B127" s="4">
         <v>343.91</v>
       </c>
-      <c r="C127" s="7"/>
-      <c r="D127" s="6"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C127" s="9">
+        <v>117539485</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>45084</v>
       </c>
       <c r="B128" s="4">
         <v>343.22</v>
       </c>
-      <c r="C128" s="7"/>
-      <c r="D128" s="6"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C128" s="9">
+        <v>115841143</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>45085</v>
       </c>
       <c r="B129" s="4">
         <v>342.75</v>
       </c>
-      <c r="C129" s="7"/>
-      <c r="D129" s="6"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C129" s="9">
+        <v>155259133</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>45086</v>
       </c>
       <c r="B130" s="4">
         <v>346.79</v>
       </c>
-      <c r="C130" s="7"/>
-      <c r="D130" s="6"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C130" s="9">
+        <v>139698171</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>45089</v>
       </c>
       <c r="B131" s="4">
         <v>344.57</v>
       </c>
-      <c r="C131" s="7"/>
-      <c r="D131" s="6"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C131" s="9">
+        <v>115930437</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>45090</v>
       </c>
       <c r="B132" s="4">
         <v>346.39</v>
       </c>
-      <c r="C132" s="7"/>
-      <c r="D132" s="6"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C132" s="9">
+        <v>119445575</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>45091</v>
       </c>
       <c r="B133" s="4">
         <v>344.65</v>
       </c>
-      <c r="C133" s="7"/>
-      <c r="D133" s="6"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C133" s="9">
+        <v>124557596</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>45092</v>
       </c>
       <c r="B134" s="4">
         <v>343.19</v>
       </c>
-      <c r="C134" s="7"/>
-      <c r="D134" s="6"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C134" s="9">
+        <v>117106186</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>45093</v>
       </c>
       <c r="B135" s="4">
         <v>345.17</v>
       </c>
-      <c r="C135" s="7"/>
-      <c r="D135" s="6"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C135" s="9">
+        <v>153589066</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>45096</v>
       </c>
       <c r="B136" s="4">
         <v>343.13</v>
       </c>
-      <c r="C136" s="7"/>
-      <c r="D136" s="6"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C136" s="9">
+        <v>120263306</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>45097</v>
       </c>
       <c r="B137" s="4">
         <v>342.58</v>
       </c>
-      <c r="C137" s="7"/>
-      <c r="D137" s="6"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C137" s="9">
+        <v>157399274</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>45098</v>
       </c>
       <c r="B138" s="4">
         <v>339.44</v>
       </c>
-      <c r="C138" s="7"/>
-      <c r="D138" s="6"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C138" s="9">
+        <v>126950283</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>45099</v>
       </c>
       <c r="B139" s="4">
         <v>341.12</v>
       </c>
-      <c r="C139" s="7"/>
-      <c r="D139" s="6"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C139" s="9">
+        <v>103389274</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>45100</v>
       </c>
       <c r="B140" s="4">
         <v>338.45</v>
       </c>
-      <c r="C140" s="7"/>
-      <c r="D140" s="6"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C140" s="9">
+        <v>100435756</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>45103</v>
       </c>
       <c r="B141" s="4">
         <v>340.38</v>
       </c>
-      <c r="C141" s="7"/>
-      <c r="D141" s="6"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C141" s="9">
+        <v>101453098</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>45104</v>
       </c>
       <c r="B142" s="4">
         <v>340.32</v>
       </c>
-      <c r="C142" s="7"/>
-      <c r="D142" s="6"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C142" s="9">
+        <v>97622170</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>45105</v>
       </c>
       <c r="B143" s="4">
         <v>338.41</v>
       </c>
-      <c r="C143" s="7"/>
-      <c r="D143" s="6"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C143" s="9">
+        <v>96687412</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>45106</v>
       </c>
       <c r="B144" s="4">
         <v>336.39</v>
       </c>
-      <c r="C144" s="7"/>
-      <c r="D144" s="6"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C144" s="9">
+        <v>105438937</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>45107</v>
       </c>
       <c r="B145" s="4">
         <v>337.95</v>
       </c>
-      <c r="C145" s="7"/>
-      <c r="D145" s="6"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C145" s="9">
+        <v>103950018</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>45110</v>
       </c>
       <c r="B146" s="4">
         <v>343.08</v>
       </c>
-      <c r="C146" s="7"/>
-      <c r="D146" s="6"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C146" s="9">
+        <v>98769880</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>45111</v>
       </c>
       <c r="B147" s="4">
         <v>341.59</v>
       </c>
-      <c r="C147" s="7"/>
-      <c r="D147" s="6"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C147" s="9">
+        <v>103848869</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>45112</v>
       </c>
       <c r="B148" s="4">
         <v>339.04</v>
       </c>
-      <c r="C148" s="7"/>
-      <c r="D148" s="6"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C148" s="9">
+        <v>130507262</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>45113</v>
       </c>
       <c r="B149" s="4">
         <v>336.2</v>
       </c>
-      <c r="C149" s="7"/>
-      <c r="D149" s="6"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C149" s="9">
+        <v>146366854</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>45114</v>
       </c>
       <c r="B150" s="4">
         <v>331.57</v>
       </c>
-      <c r="C150" s="7"/>
-      <c r="D150" s="6"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C150" s="9">
+        <v>134887011</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>45117</v>
       </c>
       <c r="B151" s="4">
         <v>330.84</v>
       </c>
-      <c r="C151" s="7"/>
-      <c r="D151" s="6"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C151" s="9">
+        <v>116841484</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>45118</v>
       </c>
       <c r="B152" s="4">
         <v>337.02</v>
       </c>
-      <c r="C152" s="7"/>
-      <c r="D152" s="6"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C152" s="9">
+        <v>147277345</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>45119</v>
       </c>
       <c r="B153" s="4">
         <v>339.46</v>
       </c>
-      <c r="C153" s="7"/>
-      <c r="D153" s="6"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C153" s="9">
+        <v>185295511</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>45120</v>
       </c>
       <c r="B154" s="4">
         <v>341.13</v>
       </c>
-      <c r="C154" s="7"/>
-      <c r="D154" s="6"/>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C154" s="9">
+        <v>154057328</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>45121</v>
       </c>
       <c r="B155" s="4">
         <v>346.93</v>
       </c>
-      <c r="C155" s="7"/>
-      <c r="D155" s="6"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C155" s="9">
+        <v>155034900</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>45124</v>
       </c>
       <c r="B156" s="4">
         <v>345.75</v>
       </c>
-      <c r="C156" s="7"/>
-      <c r="D156" s="6"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C156" s="9">
+        <v>150885641</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>45125</v>
       </c>
       <c r="B157" s="4">
         <v>343.38</v>
       </c>
-      <c r="C157" s="7"/>
-      <c r="D157" s="6"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C157" s="9">
+        <v>131142906</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>45126</v>
       </c>
       <c r="B158" s="4">
         <v>343.11</v>
       </c>
-      <c r="C158" s="7"/>
-      <c r="D158" s="6"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C158" s="9">
+        <v>123777034</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>45127</v>
       </c>
       <c r="B159" s="4">
         <v>341.67</v>
       </c>
-      <c r="C159" s="7"/>
-      <c r="D159" s="6"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C159" s="9">
+        <v>116380034</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>45128</v>
       </c>
       <c r="B160" s="4">
         <v>342.39</v>
       </c>
-      <c r="C160" s="7"/>
-      <c r="D160" s="6"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C160" s="9">
+        <v>130846247</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>45131</v>
       </c>
       <c r="B161" s="4">
         <v>344.32</v>
       </c>
-      <c r="C161" s="7"/>
-      <c r="D161" s="6"/>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C161" s="9">
+        <v>151453723</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>45132</v>
       </c>
       <c r="B162" s="4">
         <v>344.92</v>
       </c>
-      <c r="C162" s="7"/>
-      <c r="D162" s="6"/>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C162" s="9">
+        <v>200892226</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>45133</v>
       </c>
       <c r="B163" s="4">
         <v>340.56</v>
       </c>
-      <c r="C163" s="7"/>
-      <c r="D163" s="6"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C163" s="9">
+        <v>296536749</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>45134</v>
       </c>
       <c r="B164" s="4">
         <v>344.76</v>
       </c>
-      <c r="C164" s="7"/>
-      <c r="D164" s="6"/>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C164" s="9">
+        <v>238862076</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>45135</v>
       </c>
       <c r="B165" s="4">
         <v>344.03</v>
       </c>
-      <c r="C165" s="7"/>
-      <c r="D165" s="6"/>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C165" s="9">
+        <v>197315869</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>45138</v>
       </c>
       <c r="B166" s="4">
         <v>345.62</v>
       </c>
-      <c r="C166" s="7"/>
-      <c r="D166" s="6"/>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C166" s="9">
+        <v>168147750</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>45139</v>
       </c>
       <c r="B167" s="4">
         <v>351</v>
       </c>
-      <c r="C167" s="7"/>
-      <c r="D167" s="6"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C167" s="9">
+        <v>171252619</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>45140</v>
       </c>
       <c r="B168" s="4">
         <v>343.8</v>
       </c>
-      <c r="C168" s="7"/>
-      <c r="D168" s="6"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C168" s="9">
+        <v>173994097</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>45141</v>
       </c>
       <c r="B169" s="4">
         <v>341.54</v>
       </c>
-      <c r="C169" s="7"/>
-      <c r="D169" s="6"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C169" s="9">
+        <v>169190939</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>45142</v>
       </c>
       <c r="B170" s="4">
         <v>341.25</v>
       </c>
-      <c r="C170" s="7"/>
-      <c r="D170" s="6"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C170" s="9">
+        <v>118843923</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>45145</v>
       </c>
       <c r="B171" s="4">
         <v>339.68</v>
       </c>
-      <c r="C171" s="7"/>
-      <c r="D171" s="6"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C171" s="9">
+        <v>117858472</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>45146</v>
       </c>
       <c r="B172" s="4">
         <v>337.95</v>
       </c>
-      <c r="C172" s="7"/>
-      <c r="D172" s="6"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C172" s="9">
+        <v>127774416</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>45147</v>
       </c>
       <c r="B173" s="4">
         <v>341.61</v>
       </c>
-      <c r="C173" s="7"/>
-      <c r="D173" s="6"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C173" s="9">
+        <v>115524453</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>45148</v>
       </c>
       <c r="B174" s="4">
         <v>340.46</v>
       </c>
-      <c r="C174" s="7"/>
-      <c r="D174" s="6"/>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C174" s="9">
+        <v>164733982</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>45149</v>
       </c>
       <c r="B175" s="4">
         <v>338.98</v>
       </c>
-      <c r="C175" s="7"/>
-      <c r="D175" s="6"/>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C175" s="9">
+        <v>128907642</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>45152</v>
       </c>
       <c r="B176" s="4">
         <v>336.33</v>
       </c>
-      <c r="C176" s="7"/>
-      <c r="D176" s="6"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C176" s="9">
+        <v>125087415</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>45154</v>
       </c>
       <c r="B177" s="4">
         <v>331.28</v>
       </c>
-      <c r="C177" s="7"/>
-      <c r="D177" s="6"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C177" s="9">
+        <v>126659888</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>45155</v>
       </c>
       <c r="B178" s="4">
         <v>330.23</v>
       </c>
-      <c r="C178" s="7"/>
-      <c r="D178" s="6"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C178" s="9">
+        <v>117989700</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>45156</v>
       </c>
       <c r="B179" s="4">
         <v>328.42</v>
       </c>
-      <c r="C179" s="7"/>
-      <c r="D179" s="6"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C179" s="9">
+        <v>119156122</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>45159</v>
       </c>
       <c r="B180" s="4">
         <v>328.84</v>
       </c>
-      <c r="C180" s="7"/>
-      <c r="D180" s="6"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C180" s="9">
+        <v>100072004</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>45160</v>
       </c>
       <c r="B181" s="4">
         <v>329.7</v>
       </c>
-      <c r="C181" s="7"/>
-      <c r="D181" s="6"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C181" s="9">
+        <v>93980650</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>45161</v>
       </c>
       <c r="B182" s="4">
         <v>329.15</v>
       </c>
-      <c r="C182" s="7"/>
-      <c r="D182" s="6"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C182" s="9">
+        <v>87579120</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>45162</v>
       </c>
       <c r="B183" s="4">
         <v>333.82</v>
       </c>
-      <c r="C183" s="7"/>
-      <c r="D183" s="6"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C183" s="9">
+        <v>105020379</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>45163</v>
       </c>
       <c r="B184" s="4">
         <v>330.25</v>
       </c>
-      <c r="C184" s="7"/>
-      <c r="D184" s="6"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C184" s="9">
+        <v>82419945</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>45166</v>
       </c>
       <c r="B185" s="4">
         <v>332.53</v>
       </c>
-      <c r="C185" s="7"/>
-      <c r="D185" s="6"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C185" s="9">
+        <v>95135763</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>45167</v>
       </c>
       <c r="B186" s="4">
         <v>333.76</v>
       </c>
-      <c r="C186" s="7"/>
-      <c r="D186" s="6"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C186" s="9">
+        <v>88518037</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>45168</v>
       </c>
       <c r="B187" s="4">
         <v>334.94</v>
       </c>
-      <c r="C187" s="7"/>
-      <c r="D187" s="6"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C187" s="9">
+        <v>89255107</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>45169</v>
       </c>
       <c r="B188" s="4">
         <v>334.75</v>
       </c>
-      <c r="C188" s="7"/>
-      <c r="D188" s="6"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C188" s="9">
+        <v>146249137</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>45170</v>
       </c>
       <c r="B189" s="4">
         <v>338.28</v>
       </c>
-      <c r="C189" s="7"/>
-      <c r="D189" s="6"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C189" s="9">
+        <v>119773878</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>45173</v>
       </c>
       <c r="B190" s="4">
         <v>341.02</v>
       </c>
-      <c r="C190" s="7"/>
-      <c r="D190" s="6"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C190" s="9">
+        <v>96694641</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>45174</v>
       </c>
       <c r="B191" s="4">
         <v>340.29</v>
       </c>
-      <c r="C191" s="7"/>
-      <c r="D191" s="6"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C191" s="9">
+        <v>82753176</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>45175</v>
       </c>
       <c r="B192" s="4">
         <v>337.85</v>
       </c>
-      <c r="C192" s="7"/>
-      <c r="D192" s="6"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C192" s="9">
+        <v>91705977</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>45176</v>
       </c>
       <c r="B193" s="4">
         <v>336.74</v>
       </c>
-      <c r="C193" s="7"/>
-      <c r="D193" s="6"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C193" s="9">
+        <v>88385491</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>45177</v>
       </c>
       <c r="B194" s="4">
         <v>336.4</v>
       </c>
-      <c r="C194" s="7"/>
-      <c r="D194" s="6"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C194" s="9">
+        <v>79833140</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>45180</v>
       </c>
       <c r="B195" s="4">
         <v>337.58</v>
       </c>
-      <c r="C195" s="7"/>
-      <c r="D195" s="6"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C195" s="9">
+        <v>112564980</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>45181</v>
       </c>
       <c r="B196" s="4">
         <v>335.54</v>
       </c>
-      <c r="C196" s="7"/>
-      <c r="D196" s="6"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C196" s="9">
+        <v>94675658</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>45182</v>
       </c>
       <c r="B197" s="4">
         <v>335.99</v>
       </c>
-      <c r="C197" s="7"/>
-      <c r="D197" s="6"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C197" s="9">
+        <v>106778784</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>45183</v>
       </c>
       <c r="B198" s="4">
         <v>341.19</v>
       </c>
-      <c r="C198" s="7"/>
-      <c r="D198" s="6"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C198" s="9">
+        <v>121376523</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>45184</v>
       </c>
       <c r="B199" s="4">
         <v>344.98</v>
       </c>
-      <c r="C199" s="7"/>
-      <c r="D199" s="6"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C199" s="9">
+        <v>159760232</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>45187</v>
       </c>
       <c r="B200" s="4">
         <v>340.67</v>
       </c>
-      <c r="C200" s="7"/>
-      <c r="D200" s="6"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C200" s="9">
+        <v>100511732</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>45188</v>
       </c>
       <c r="B201" s="4">
         <v>338.82</v>
       </c>
-      <c r="C201" s="7"/>
-      <c r="D201" s="6"/>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C201" s="9">
+        <v>96050928</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>45189</v>
       </c>
       <c r="B202" s="4">
         <v>338.75</v>
       </c>
-      <c r="C202" s="7"/>
-      <c r="D202" s="6"/>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C202" s="9">
+        <v>104345680</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>45190</v>
       </c>
       <c r="B203" s="4">
         <v>333.04</v>
       </c>
-      <c r="C203" s="7"/>
-      <c r="D203" s="6"/>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C203" s="9">
+        <v>96328791</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>45191</v>
       </c>
       <c r="B204" s="4">
         <v>332.02</v>
       </c>
-      <c r="C204" s="7"/>
-      <c r="D204" s="6"/>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C204" s="9">
+        <v>87027919</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>45194</v>
       </c>
       <c r="B205" s="4">
         <v>331.58</v>
       </c>
-      <c r="C205" s="7"/>
-      <c r="D205" s="6"/>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C205" s="9">
+        <v>84400081</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>45195</v>
       </c>
       <c r="B206" s="4">
         <v>326.89999999999998</v>
       </c>
-      <c r="C206" s="7"/>
-      <c r="D206" s="6"/>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C206" s="9">
+        <v>90024892</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>45196</v>
       </c>
       <c r="B207" s="4">
         <v>326.70999999999998</v>
       </c>
-      <c r="C207" s="7"/>
-      <c r="D207" s="6"/>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C207" s="9">
+        <v>81602937</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>45203</v>
       </c>
       <c r="B208" s="4">
         <v>319.45</v>
       </c>
-      <c r="C208" s="7"/>
-      <c r="D208" s="6"/>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C208" s="9">
+        <v>149154628</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>45204</v>
       </c>
       <c r="B209" s="4">
         <v>318.58</v>
       </c>
-      <c r="C209" s="7"/>
-      <c r="D209" s="6"/>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C209" s="9">
+        <v>104522580</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>45205</v>
       </c>
       <c r="B210" s="4">
         <v>318.94</v>
       </c>
-      <c r="C210" s="7"/>
-      <c r="D210" s="6"/>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C210" s="9">
+        <v>87538952</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>45209</v>
       </c>
       <c r="B211" s="4">
         <v>319.11</v>
       </c>
-      <c r="C211" s="7"/>
-      <c r="D211" s="6"/>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C211" s="9">
+        <v>128817089</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>45210</v>
       </c>
       <c r="B212" s="4">
         <v>324.74</v>
       </c>
-      <c r="C212" s="7"/>
-      <c r="D212" s="6"/>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C212" s="9">
+        <v>119111539</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>45211</v>
       </c>
       <c r="B213" s="4">
         <v>328.85</v>
       </c>
-      <c r="C213" s="7"/>
-      <c r="D213" s="6"/>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C213" s="9">
+        <v>108819519</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>45212</v>
       </c>
       <c r="B214" s="4">
         <v>325.77</v>
       </c>
-      <c r="C214" s="7"/>
-      <c r="D214" s="6"/>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C214" s="9">
+        <v>91775351</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>45215</v>
       </c>
       <c r="B215" s="4">
         <v>323.29000000000002</v>
       </c>
-      <c r="C215" s="7"/>
-      <c r="D215" s="6"/>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C215" s="9">
+        <v>93097005</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>45216</v>
       </c>
       <c r="B216" s="4">
         <v>327.35000000000002</v>
       </c>
-      <c r="C216" s="7"/>
-      <c r="D216" s="6"/>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C216" s="9">
+        <v>88460757</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>45217</v>
       </c>
       <c r="B217" s="4">
         <v>328.82</v>
       </c>
-      <c r="C217" s="7"/>
-      <c r="D217" s="6"/>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C217" s="9">
+        <v>134130424</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>45218</v>
       </c>
       <c r="B218" s="4">
         <v>322.76</v>
       </c>
-      <c r="C218" s="7"/>
-      <c r="D218" s="6"/>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C218" s="9">
+        <v>115713978</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>45219</v>
       </c>
       <c r="B219" s="4">
         <v>317.95999999999998</v>
       </c>
-      <c r="C219" s="7"/>
-      <c r="D219" s="6"/>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C219" s="9">
+        <v>112714314</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>45222</v>
       </c>
       <c r="B220" s="4">
         <v>315.5</v>
       </c>
-      <c r="C220" s="7"/>
-      <c r="D220" s="6"/>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C220" s="9">
+        <v>89162326</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>45223</v>
       </c>
       <c r="B221" s="4">
         <v>318.43</v>
       </c>
-      <c r="C221" s="7"/>
-      <c r="D221" s="6"/>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C221" s="9">
+        <v>93256078</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>45224</v>
       </c>
       <c r="B222" s="4">
         <v>316.49</v>
       </c>
-      <c r="C222" s="7"/>
-      <c r="D222" s="6"/>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C222" s="9">
+        <v>91218212</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>45225</v>
       </c>
       <c r="B223" s="4">
         <v>307.75</v>
       </c>
-      <c r="C223" s="7"/>
-      <c r="D223" s="6"/>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C223" s="9">
+        <v>110774427</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>45226</v>
       </c>
       <c r="B224" s="4">
         <v>308.52999999999997</v>
       </c>
-      <c r="C224" s="7"/>
-      <c r="D224" s="6"/>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C224" s="9">
+        <v>92934386</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>45229</v>
       </c>
       <c r="B225" s="4">
         <v>308.95</v>
       </c>
-      <c r="C225" s="7"/>
-      <c r="D225" s="6"/>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C225" s="9">
+        <v>95847666</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>45230</v>
       </c>
       <c r="B226" s="4">
         <v>305.56</v>
       </c>
-      <c r="C226" s="7"/>
-      <c r="D226" s="6"/>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C226" s="9">
+        <v>121721241</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>45231</v>
       </c>
       <c r="B227" s="4">
         <v>309.70999999999998</v>
       </c>
-      <c r="C227" s="7"/>
-      <c r="D227" s="6"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C227" s="9">
+        <v>88982229</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>45232</v>
       </c>
       <c r="B228" s="4">
         <v>315.16000000000003</v>
       </c>
-      <c r="C228" s="7"/>
-      <c r="D228" s="6"/>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C228" s="9">
+        <v>112376415</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>45233</v>
       </c>
       <c r="B229" s="4">
         <v>318.24</v>
       </c>
-      <c r="C229" s="7"/>
-      <c r="D229" s="6"/>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C229" s="9">
+        <v>89968188</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>45236</v>
       </c>
       <c r="B230" s="4">
         <v>334.16</v>
       </c>
-      <c r="C230" s="7"/>
-      <c r="D230" s="6"/>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C230" s="9">
+        <v>174432379</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>45237</v>
       </c>
       <c r="B231" s="4">
         <v>327.29000000000002</v>
       </c>
-      <c r="C231" s="7"/>
-      <c r="D231" s="6"/>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C231" s="9">
+        <v>119879230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>45238</v>
       </c>
       <c r="B232" s="4">
         <v>324</v>
       </c>
-      <c r="C232" s="7"/>
-      <c r="D232" s="6"/>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C232" s="9">
+        <v>89899157</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>45239</v>
       </c>
       <c r="B233" s="4">
         <v>325.29000000000002</v>
       </c>
-      <c r="C233" s="7"/>
-      <c r="D233" s="6"/>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C233" s="9">
+        <v>93287967</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>45240</v>
       </c>
       <c r="B234" s="4">
         <v>323.75</v>
       </c>
-      <c r="C234" s="7"/>
-      <c r="D234" s="6"/>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C234" s="9">
+        <v>65663861</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>45243</v>
       </c>
       <c r="B235" s="4">
         <v>323.31</v>
       </c>
-      <c r="C235" s="7"/>
-      <c r="D235" s="6"/>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C235" s="9">
+        <v>68729674</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>45244</v>
       </c>
       <c r="B236" s="4">
         <v>326.57</v>
       </c>
-      <c r="C236" s="7"/>
-      <c r="D236" s="6"/>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C236" s="9">
+        <v>75471066</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>45245</v>
       </c>
       <c r="B237" s="4">
         <v>333.96</v>
       </c>
-      <c r="C237" s="7"/>
-      <c r="D237" s="6"/>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C237" s="9">
+        <v>117057060</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>45246</v>
       </c>
       <c r="B238" s="4">
         <v>334.31</v>
       </c>
-      <c r="C238" s="7"/>
-      <c r="D238" s="6"/>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C238" s="9">
+        <v>80857258</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>45247</v>
       </c>
       <c r="B239" s="4">
         <v>332.06</v>
       </c>
-      <c r="C239" s="7"/>
-      <c r="D239" s="6"/>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C239" s="9">
+        <v>72719817</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>45250</v>
       </c>
       <c r="B240" s="4">
         <v>334.23</v>
       </c>
-      <c r="C240" s="7"/>
-      <c r="D240" s="6"/>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C240" s="9">
+        <v>73758382</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>45251</v>
       </c>
       <c r="B241" s="4">
         <v>336.57</v>
       </c>
-      <c r="C241" s="7"/>
-      <c r="D241" s="6"/>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C241" s="9">
+        <v>80861020</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>45252</v>
       </c>
       <c r="B242" s="4">
         <v>336.81</v>
       </c>
-      <c r="C242" s="7"/>
-      <c r="D242" s="6"/>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C242" s="9">
+        <v>72501098</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>45253</v>
       </c>
       <c r="B243" s="4">
         <v>336.91</v>
       </c>
-      <c r="C243" s="7"/>
-      <c r="D243" s="6"/>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C243" s="9">
+        <v>72835159</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>45254</v>
       </c>
       <c r="B244" s="4">
         <v>334</v>
       </c>
-      <c r="C244" s="7"/>
-      <c r="D244" s="6"/>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C244" s="9">
+        <v>73066193</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>45257</v>
       </c>
       <c r="B245" s="4">
         <v>333.67</v>
       </c>
-      <c r="C245" s="7"/>
-      <c r="D245" s="6"/>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C245" s="9">
+        <v>72979263</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>45258</v>
       </c>
       <c r="B246" s="4">
         <v>337.52</v>
       </c>
-      <c r="C246" s="7"/>
-      <c r="D246" s="6"/>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C246" s="9">
+        <v>97438609</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>45259</v>
       </c>
       <c r="B247" s="4">
         <v>336.62</v>
       </c>
-      <c r="C247" s="7"/>
-      <c r="D247" s="6"/>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C247" s="9">
+        <v>88757604</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>45260</v>
       </c>
       <c r="B248" s="4">
         <v>338.43</v>
       </c>
-      <c r="C248" s="7"/>
-      <c r="D248" s="6"/>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C248" s="9">
+        <v>169523748</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>45261</v>
       </c>
       <c r="B249" s="4">
         <v>334.8</v>
       </c>
-      <c r="C249" s="7"/>
-      <c r="D249" s="6"/>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C249" s="9">
+        <v>95304378</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>45264</v>
       </c>
       <c r="B250" s="4">
         <v>336.14</v>
       </c>
-      <c r="C250" s="7"/>
-      <c r="D250" s="6"/>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C250" s="9">
+        <v>90945516</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>45265</v>
       </c>
       <c r="B251" s="4">
         <v>332.85</v>
       </c>
-      <c r="C251" s="7"/>
-      <c r="D251" s="6"/>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C251" s="9">
+        <v>93825597</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>45266</v>
       </c>
       <c r="B252" s="4">
         <v>333.45</v>
       </c>
-      <c r="C252" s="7"/>
-      <c r="D252" s="6"/>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C252" s="9">
+        <v>86198053</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>45267</v>
       </c>
       <c r="B253" s="4">
         <v>332.67</v>
       </c>
-      <c r="C253" s="7"/>
-      <c r="D253" s="6"/>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C253" s="9">
+        <v>85653911</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>45268</v>
       </c>
       <c r="B254" s="4">
         <v>336.6</v>
       </c>
-      <c r="C254" s="7"/>
-      <c r="D254" s="6"/>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C254" s="9">
+        <v>72001115</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>45271</v>
       </c>
       <c r="B255" s="4">
         <v>337.93</v>
       </c>
-      <c r="C255" s="7"/>
-      <c r="D255" s="6"/>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C255" s="9">
+        <v>80191377</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>45272</v>
       </c>
       <c r="B256" s="4">
         <v>339.77</v>
       </c>
-      <c r="C256" s="7"/>
-      <c r="D256" s="6"/>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C256" s="9">
+        <v>96194555</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>45273</v>
       </c>
       <c r="B257" s="4">
         <v>336.68</v>
       </c>
-      <c r="C257" s="7"/>
-      <c r="D257" s="6"/>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C257" s="9">
+        <v>74854643</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>45274</v>
       </c>
       <c r="B258" s="4">
         <v>341.33</v>
       </c>
-      <c r="C258" s="7"/>
-      <c r="D258" s="6"/>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C258" s="9">
+        <v>156813582</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>45275</v>
       </c>
       <c r="B259" s="4">
         <v>343.99</v>
       </c>
-      <c r="C259" s="7"/>
-      <c r="D259" s="6"/>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C259" s="9">
+        <v>144476524</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>45278</v>
       </c>
       <c r="B260" s="4">
         <v>343.5</v>
       </c>
-      <c r="C260" s="7"/>
-      <c r="D260" s="6"/>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C260" s="9">
+        <v>126758084</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>45279</v>
       </c>
       <c r="B261" s="4">
         <v>343.95</v>
       </c>
-      <c r="C261" s="7"/>
-      <c r="D261" s="6"/>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C261" s="9">
+        <v>165174688</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>45280</v>
       </c>
       <c r="B262" s="4">
         <v>350.11</v>
       </c>
-      <c r="C262" s="7"/>
-      <c r="D262" s="6"/>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C262" s="9">
+        <v>213300194</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>45281</v>
       </c>
       <c r="B263" s="4">
         <v>348.78</v>
       </c>
-      <c r="C263" s="7"/>
-      <c r="D263" s="6"/>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C263" s="9">
+        <v>128068827</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>45282</v>
       </c>
       <c r="B264" s="4">
         <v>349.15</v>
       </c>
-      <c r="C264" s="7"/>
-      <c r="D264" s="6"/>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C264" s="9">
+        <v>114793346</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>45286</v>
       </c>
       <c r="B265" s="4">
         <v>350.43</v>
       </c>
-      <c r="C265" s="7"/>
-      <c r="D265" s="6"/>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C265" s="9">
+        <v>109353368</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>45287</v>
       </c>
       <c r="B266" s="4">
         <v>352.46</v>
       </c>
-      <c r="C266" s="7"/>
-      <c r="D266" s="6"/>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C266" s="9">
+        <v>129881518</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>45288</v>
       </c>
       <c r="B267" s="4">
         <v>357.99</v>
       </c>
-      <c r="C267" s="7"/>
-      <c r="D267" s="6"/>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C267" s="9">
+        <v>108348110</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>45293</v>
       </c>
       <c r="B268" s="4">
         <v>360.55</v>
       </c>
-      <c r="C268" s="7"/>
-      <c r="D268" s="6"/>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C268" s="9">
+        <v>106708510</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>45294</v>
       </c>
       <c r="B269" s="4">
         <v>351.2</v>
       </c>
-      <c r="C269" s="7"/>
-      <c r="D269" s="6"/>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C269" s="9">
+        <v>117690135</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>45295</v>
       </c>
       <c r="B270" s="4">
         <v>348.07</v>
       </c>
-      <c r="C270" s="7"/>
-      <c r="D270" s="6"/>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C270" s="9">
+        <v>103140948</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>45296</v>
       </c>
       <c r="B271" s="4">
         <v>347.22</v>
       </c>
-      <c r="C271" s="7"/>
-      <c r="D271" s="6"/>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C271" s="9">
+        <v>82152940</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>45299</v>
       </c>
       <c r="B272" s="4">
         <v>345.58</v>
       </c>
-      <c r="C272" s="7"/>
-      <c r="D272" s="6"/>
-    </row>
-    <row r="273" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="8">
+      <c r="C272" s="9">
+        <v>78230008</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="6">
         <v>45300</v>
       </c>
-      <c r="B273" s="9">
+      <c r="B273" s="7">
         <v>343.81</v>
       </c>
-      <c r="C273" s="10"/>
-      <c r="D273" s="11"/>
-    </row>
-    <row r="274" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="8">
+      <c r="C273" s="9">
+        <v>94875502</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="6">
         <v>45301</v>
       </c>
-      <c r="B274" s="9">
+      <c r="B274" s="7">
         <v>340.66</v>
       </c>
-      <c r="C274" s="10"/>
-      <c r="D274" s="11"/>
-    </row>
-    <row r="275" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="8">
+      <c r="C274" s="9">
+        <v>95489835</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="6">
         <v>45302</v>
       </c>
-      <c r="B275" s="9">
+      <c r="B275" s="7">
         <v>340.28</v>
       </c>
-      <c r="C275" s="10"/>
-      <c r="D275" s="11"/>
-    </row>
-    <row r="276" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="8">
+      <c r="C275" s="9">
+        <v>163528542</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="6">
         <v>45303</v>
       </c>
-      <c r="B276" s="9">
+      <c r="B276" s="7">
         <v>338.22</v>
       </c>
-      <c r="C276" s="10"/>
-      <c r="D276" s="11"/>
-    </row>
-    <row r="277" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="8">
+      <c r="C276" s="9">
+        <v>86833009</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="6">
         <v>45306</v>
       </c>
-      <c r="B277" s="9">
+      <c r="B277" s="7">
         <v>339.24</v>
       </c>
-      <c r="C277" s="10"/>
-      <c r="D277" s="11"/>
-    </row>
-    <row r="278" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="8">
+      <c r="C277" s="9">
+        <v>86541302</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="6">
         <v>45307</v>
       </c>
-      <c r="B278" s="9">
+      <c r="B278" s="7">
         <v>334.73</v>
       </c>
-      <c r="C278" s="10"/>
-      <c r="D278" s="11"/>
-    </row>
-    <row r="279" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="8">
+      <c r="C278" s="9">
+        <v>94324487</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="6">
         <v>45308</v>
       </c>
-      <c r="B279" s="9">
+      <c r="B279" s="7">
         <v>326.11</v>
       </c>
-      <c r="C279" s="10"/>
-      <c r="D279" s="11"/>
-    </row>
-    <row r="280" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="8">
+      <c r="C279" s="9">
+        <v>134916196</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="6">
         <v>45309</v>
       </c>
-      <c r="B280" s="9">
+      <c r="B280" s="7">
         <v>327.13</v>
       </c>
-      <c r="C280" s="10"/>
-      <c r="D280" s="11"/>
-    </row>
-    <row r="281" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="8">
+      <c r="C280" s="9">
+        <v>98178523</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="6">
         <v>45310</v>
       </c>
-      <c r="B281" s="9">
+      <c r="B281" s="7">
         <v>332.99</v>
       </c>
-      <c r="C281" s="10"/>
-      <c r="D281" s="11"/>
-    </row>
-    <row r="282" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="8">
+      <c r="C281" s="9">
+        <v>102425098</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="6">
         <v>45313</v>
       </c>
-      <c r="B282" s="9">
+      <c r="B282" s="7">
         <v>332.63</v>
       </c>
-      <c r="C282" s="10"/>
-      <c r="D282" s="11"/>
-    </row>
-    <row r="283" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="8">
+      <c r="C282" s="9">
+        <v>92552304</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="6">
         <v>45314</v>
       </c>
-      <c r="B283" s="9">
+      <c r="B283" s="7">
         <v>334.97</v>
       </c>
-      <c r="C283" s="10"/>
-      <c r="D283" s="11"/>
-    </row>
-    <row r="284" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="8">
+      <c r="C283" s="9">
+        <v>95068403</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="6">
         <v>45315</v>
       </c>
-      <c r="B284" s="9">
+      <c r="B284" s="7">
         <v>333.27</v>
       </c>
-      <c r="C284" s="10"/>
-      <c r="D284" s="11"/>
-    </row>
-    <row r="285" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="8">
+      <c r="C284" s="9">
+        <v>100933985</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="6">
         <v>45316</v>
       </c>
-      <c r="B285" s="9">
+      <c r="B285" s="7">
         <v>333.8</v>
       </c>
-      <c r="C285" s="10"/>
-      <c r="D285" s="11"/>
-    </row>
-    <row r="286" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="8">
+      <c r="C285" s="9">
+        <v>101107324</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="6">
         <v>45317</v>
       </c>
-      <c r="B286" s="9">
+      <c r="B286" s="7">
         <v>334.21</v>
       </c>
-      <c r="C286" s="10"/>
-      <c r="D286" s="11"/>
-    </row>
-    <row r="287" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="8">
+      <c r="C286" s="9">
+        <v>86543245</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="6">
         <v>45320</v>
       </c>
-      <c r="B287" s="9">
+      <c r="B287" s="7">
         <v>337.84</v>
       </c>
-      <c r="C287" s="10"/>
-      <c r="D287" s="11"/>
-    </row>
-    <row r="288" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="8">
+      <c r="C287" s="9">
+        <v>114356545</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="6">
         <v>45321</v>
       </c>
-      <c r="B288" s="9">
+      <c r="B288" s="7">
         <v>337.48</v>
       </c>
-      <c r="C288" s="10"/>
-      <c r="D288" s="11"/>
-    </row>
-    <row r="289" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="8">
+      <c r="C288" s="9">
+        <v>128282118</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="6">
         <v>45322</v>
       </c>
-      <c r="B289" s="9">
+      <c r="B289" s="7">
         <v>336.24</v>
       </c>
-      <c r="C289" s="10"/>
-      <c r="D289" s="11"/>
-    </row>
-    <row r="290" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="8">
+      <c r="C289" s="9">
+        <v>126917894</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="6">
         <v>45323</v>
       </c>
-      <c r="B290" s="9">
+      <c r="B290" s="7">
         <v>342.41</v>
       </c>
-      <c r="C290" s="10"/>
-      <c r="D290" s="11"/>
-    </row>
-    <row r="291" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="8">
+      <c r="C290" s="9">
+        <v>243069263</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="6">
         <v>45324</v>
       </c>
-      <c r="B291" s="9">
+      <c r="B291" s="7">
         <v>353.43</v>
       </c>
-      <c r="C291" s="10"/>
-      <c r="D291" s="11"/>
-    </row>
-    <row r="292" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="8">
+      <c r="C291" s="9">
+        <v>212399308</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="6">
         <v>45327</v>
       </c>
-      <c r="B292" s="9">
+      <c r="B292" s="7">
         <v>349.15</v>
       </c>
-      <c r="C292" s="10"/>
-      <c r="D292" s="11"/>
-    </row>
-    <row r="293" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="8">
+      <c r="C292" s="9">
+        <v>189504677</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="6">
         <v>45328</v>
       </c>
-      <c r="B293" s="9">
+      <c r="B293" s="7">
         <v>347.8</v>
       </c>
-      <c r="C293" s="10"/>
-      <c r="D293" s="11"/>
-    </row>
-    <row r="294" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="8">
+      <c r="C293" s="9">
+        <v>132641752</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="6">
         <v>45329</v>
       </c>
-      <c r="B294" s="9">
+      <c r="B294" s="7">
         <v>352.25</v>
       </c>
-      <c r="C294" s="10"/>
-      <c r="D294" s="11"/>
-    </row>
-    <row r="295" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="8">
+      <c r="C294" s="9">
+        <v>246754857</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="6">
         <v>45330</v>
       </c>
-      <c r="B295" s="9">
+      <c r="B295" s="7">
         <v>353.29</v>
       </c>
-      <c r="C295" s="10"/>
-      <c r="D295" s="11"/>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C295" s="9">
+        <v>192010419</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>45335</v>
       </c>
       <c r="B296" s="4">
         <v>357.38</v>
       </c>
-      <c r="C296" s="7"/>
-      <c r="D296" s="6"/>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C296" s="9">
+        <v>156044394</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>45336</v>
       </c>
       <c r="B297" s="4">
         <v>352.69</v>
       </c>
-      <c r="C297" s="7"/>
-      <c r="D297" s="6"/>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C297" s="9">
+        <v>120507730</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>45337</v>
       </c>
       <c r="B298" s="4">
         <v>351.21</v>
       </c>
-      <c r="C298" s="7"/>
-      <c r="D298" s="6"/>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C298" s="9">
+        <v>121341755</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>45338</v>
       </c>
       <c r="B299" s="4">
         <v>355.52</v>
       </c>
-      <c r="C299" s="7"/>
-      <c r="D299" s="6"/>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C299" s="9">
+        <v>121460536</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>45341</v>
       </c>
       <c r="B300" s="4">
         <v>360.88</v>
       </c>
-      <c r="C300" s="7"/>
-      <c r="D300" s="6"/>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C300" s="9">
+        <v>139812203</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>45342</v>
       </c>
       <c r="B301" s="4">
         <v>356.92</v>
       </c>
-      <c r="C301" s="7"/>
-      <c r="D301" s="6"/>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C301" s="9">
+        <v>119318634</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>45343</v>
       </c>
       <c r="B302" s="4">
         <v>356.04</v>
       </c>
-      <c r="C302" s="7"/>
-      <c r="D302" s="6"/>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C302" s="9">
+        <v>109115876</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>45344</v>
       </c>
       <c r="B303" s="4">
         <v>357.67</v>
       </c>
-      <c r="C303" s="7"/>
-      <c r="D303" s="6"/>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C303" s="9">
+        <v>128281928</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>45345</v>
       </c>
       <c r="B304" s="4">
         <v>358.57</v>
       </c>
-      <c r="C304" s="7"/>
-      <c r="D304" s="6"/>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C304" s="9">
+        <v>133369668</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>45348</v>
       </c>
       <c r="B305" s="4">
         <v>355.48</v>
       </c>
-      <c r="C305" s="7"/>
-      <c r="D305" s="6"/>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C305" s="9">
+        <v>140518627</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>45349</v>
       </c>
       <c r="B306" s="4">
         <v>352.76</v>
       </c>
-      <c r="C306" s="7"/>
-      <c r="D306" s="6"/>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C306" s="9">
+        <v>137863814</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>45350</v>
       </c>
       <c r="B307" s="4">
         <v>356.79</v>
       </c>
-      <c r="C307" s="7"/>
-      <c r="D307" s="6"/>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C307" s="9">
+        <v>127223726</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>45351</v>
       </c>
       <c r="B308" s="4">
         <v>355.57</v>
       </c>
-      <c r="C308" s="7"/>
-      <c r="D308" s="6"/>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C308" s="9">
+        <v>187599997</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>45355</v>
       </c>
       <c r="B309" s="4">
         <v>361.1</v>
       </c>
-      <c r="C309" s="7"/>
-      <c r="D309" s="6"/>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C309" s="9">
+        <v>152490412</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>45356</v>
       </c>
       <c r="B310" s="4">
         <v>357.59</v>
       </c>
-      <c r="C310" s="7"/>
-      <c r="D310" s="6"/>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C310" s="9">
+        <v>134877064</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>45357</v>
       </c>
       <c r="B311" s="4">
         <v>356.25</v>
       </c>
-      <c r="C311" s="7"/>
-      <c r="D311" s="6"/>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C311" s="9">
+        <v>123866358</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>45358</v>
       </c>
       <c r="B312" s="4">
         <v>356.82</v>
       </c>
-      <c r="C312" s="7"/>
-      <c r="D312" s="6"/>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C312" s="9">
+        <v>120269675</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>45359</v>
       </c>
       <c r="B313" s="4">
         <v>361.71</v>
       </c>
-      <c r="C313" s="7"/>
-      <c r="D313" s="6"/>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C313" s="9">
+        <v>117519660</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>45362</v>
       </c>
       <c r="B314" s="4">
         <v>358.34</v>
       </c>
-      <c r="C314" s="7"/>
-      <c r="D314" s="6"/>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C314" s="9">
+        <v>120788890</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>45363</v>
       </c>
       <c r="B315" s="4">
         <v>361.11</v>
       </c>
-      <c r="C315" s="7"/>
-      <c r="D315" s="6"/>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C315" s="9">
+        <v>125853290</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>45364</v>
       </c>
       <c r="B316" s="4">
         <v>363.04</v>
       </c>
-      <c r="C316" s="7"/>
-      <c r="D316" s="6"/>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C316" s="9">
+        <v>133917267</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>45365</v>
       </c>
       <c r="B317" s="4">
         <v>366.68</v>
       </c>
-      <c r="C317" s="7"/>
-      <c r="D317" s="6"/>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C317" s="9">
+        <v>266383462</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>45366</v>
       </c>
       <c r="B318" s="4">
         <v>359.39</v>
       </c>
-      <c r="C318" s="7"/>
-      <c r="D318" s="6"/>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C318" s="9">
+        <v>201924115</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>45369</v>
       </c>
       <c r="B319" s="4">
         <v>361.31</v>
       </c>
-      <c r="C319" s="7"/>
-      <c r="D319" s="6"/>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C319" s="9">
+        <v>120543843</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>45370</v>
       </c>
       <c r="B320" s="4">
         <v>357.33</v>
       </c>
-      <c r="C320" s="7"/>
-      <c r="D320" s="6"/>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C320" s="9">
+        <v>147010034</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>45371</v>
       </c>
       <c r="B321" s="4">
         <v>363.32</v>
       </c>
-      <c r="C321" s="7"/>
-      <c r="D321" s="6"/>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C321" s="9">
+        <v>147686334</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>45372</v>
       </c>
       <c r="B322" s="4">
         <v>373.66</v>
       </c>
-      <c r="C322" s="7"/>
-      <c r="D322" s="6"/>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C322" s="9">
+        <v>154725585</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>45373</v>
       </c>
       <c r="B323" s="4">
         <v>372.65</v>
       </c>
-      <c r="C323" s="7"/>
-      <c r="D323" s="6"/>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C323" s="9">
+        <v>138509491</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>45376</v>
       </c>
       <c r="B324" s="5">
         <v>370.73</v>
       </c>
-      <c r="C324" s="7"/>
-      <c r="D324" s="6"/>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C324" s="9">
+        <v>118921405</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>45377</v>
       </c>
       <c r="B325" s="5">
         <v>374.6</v>
       </c>
-      <c r="C325" s="7"/>
-      <c r="D325" s="6"/>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C325" s="9">
+        <v>135106857</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>45378</v>
       </c>
       <c r="B326" s="4">
         <v>374.08</v>
       </c>
-      <c r="C326" s="7"/>
-      <c r="D326" s="6"/>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C326" s="9">
+        <v>147626755</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>45379</v>
       </c>
       <c r="B327" s="4">
         <v>373.22</v>
       </c>
-      <c r="C327" s="7"/>
-      <c r="D327" s="6"/>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C327" s="9">
+        <v>134092316</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>45380</v>
       </c>
       <c r="B328" s="4">
         <v>374.63</v>
       </c>
-      <c r="C328" s="7"/>
-      <c r="D328" s="6"/>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C328" s="9">
+        <v>136759048</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>45383</v>
       </c>
       <c r="B329" s="4">
         <v>374.28</v>
       </c>
-      <c r="C329" s="7"/>
-      <c r="D329" s="6"/>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C329" s="9">
+        <v>117500892</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>45384</v>
       </c>
       <c r="B330" s="4">
         <v>376.34</v>
       </c>
-      <c r="C330" s="7"/>
-      <c r="D330" s="6"/>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C330" s="9">
+        <v>149553722</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>45385</v>
       </c>
       <c r="B331" s="4">
         <v>369.72</v>
       </c>
-      <c r="C331" s="7"/>
-      <c r="D331" s="6"/>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C331" s="9">
+        <v>155080645</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>45386</v>
       </c>
       <c r="B332" s="4">
         <v>375.61</v>
       </c>
-      <c r="C332" s="7"/>
-      <c r="D332" s="6"/>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C332" s="9">
+        <v>129760939</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>45387</v>
       </c>
       <c r="B333" s="4">
         <v>371.57</v>
       </c>
-      <c r="C333" s="7"/>
-      <c r="D333" s="6"/>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C333" s="9">
+        <v>160477318</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>45390</v>
       </c>
       <c r="B334" s="4">
         <v>372.51</v>
       </c>
-      <c r="C334" s="7"/>
-      <c r="D334" s="6"/>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C334" s="9">
+        <v>117622792</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>45391</v>
       </c>
       <c r="B335" s="4">
         <v>370.27</v>
       </c>
-      <c r="C335" s="7"/>
-      <c r="D335" s="6"/>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C335" s="9">
+        <v>124591852</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>45393</v>
       </c>
       <c r="B336" s="4">
         <v>370.72</v>
       </c>
-      <c r="C336" s="7"/>
-      <c r="D336" s="6"/>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C336" s="9">
+        <v>147049091</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>45394</v>
       </c>
       <c r="B337" s="4">
         <v>367.25</v>
       </c>
-      <c r="C337" s="7"/>
-      <c r="D337" s="6"/>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C337" s="9">
+        <v>163653613</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>45397</v>
       </c>
       <c r="B338" s="4">
         <v>365.31</v>
       </c>
-      <c r="C338" s="7"/>
-      <c r="D338" s="6"/>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C338" s="9">
+        <v>122918368</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>45398</v>
       </c>
       <c r="B339" s="4">
         <v>356.67</v>
       </c>
-      <c r="C339" s="7"/>
-      <c r="D339" s="6"/>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C339" s="9">
+        <v>137545226</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>45399</v>
       </c>
       <c r="B340" s="4">
         <v>352.79</v>
       </c>
-      <c r="C340" s="7"/>
-      <c r="D340" s="6"/>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C340" s="9">
+        <v>108345614</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>45400</v>
       </c>
       <c r="B341" s="4">
         <v>359.06</v>
       </c>
-      <c r="C341" s="7"/>
-      <c r="D341" s="6"/>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C341" s="9">
+        <v>155191660</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>45401</v>
       </c>
       <c r="B342" s="4">
         <v>352.58</v>
       </c>
-      <c r="C342" s="7"/>
-      <c r="D342" s="6"/>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C342" s="9">
+        <v>163740323</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>45404</v>
       </c>
       <c r="B343" s="4">
         <v>356.71</v>
       </c>
-      <c r="C343" s="7"/>
-      <c r="D343" s="6"/>
+      <c r="C343" s="9">
+        <v>152399819</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
